--- a/output/梁抗弯承载力计算结果.xlsx
+++ b/output/梁抗弯承载力计算结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22185" windowHeight="9135" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9135" windowWidth="22185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,11 +16,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.0_ "/>
-    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="166" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="167" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt formatCode="0.0_ " numFmtId="164"/>
+    <numFmt formatCode="0_);[Red]\(0\)" numFmtId="165"/>
+    <numFmt formatCode="0.0_);[Red]\(0.0\)" numFmtId="166"/>
+    <numFmt formatCode="0.00_);[Red]\(0.00\)" numFmtId="167"/>
+    <numFmt formatCode="0.0" numFmtId="168"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -485,249 +485,249 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="1"/>
+    <cellStyle builtinId="4" name="货币" xfId="2"/>
+    <cellStyle builtinId="5" name="百分比" xfId="3"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="4"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="5"/>
+    <cellStyle builtinId="8" name="超链接" xfId="6"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="7"/>
+    <cellStyle builtinId="10" name="注释" xfId="8"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="9"/>
+    <cellStyle builtinId="15" name="标题" xfId="10"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="11"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="12"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="13"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="20" name="输入" xfId="16"/>
+    <cellStyle builtinId="21" name="输出" xfId="17"/>
+    <cellStyle builtinId="22" name="计算" xfId="18"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="19"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="20"/>
+    <cellStyle builtinId="25" name="汇总" xfId="21"/>
+    <cellStyle builtinId="26" name="好" xfId="22"/>
+    <cellStyle builtinId="27" name="差" xfId="23"/>
+    <cellStyle builtinId="28" name="适中" xfId="24"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="25"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="26"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="27"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="28"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="29"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="30"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="31"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="32"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="33"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="34"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="37"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="38"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="39"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="41"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="42"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="45"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -921,27 +921,27 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+  <tableStyles count="2" defaultPivotStyle="PivotStylePreset2_Accent1" defaultTableStyle="TableStylePreset3_Accent1">
+    <tableStyle count="7" name="TableStylePreset3_Accent1" pivot="0">
+      <tableStyleElement dxfId="6" type="wholeTable"/>
+      <tableStyleElement dxfId="5" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="totalRow"/>
+      <tableStyleElement dxfId="3" type="firstColumn"/>
+      <tableStyleElement dxfId="2" type="lastColumn"/>
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="0" type="firstColumnStripe"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle count="10" name="PivotStylePreset2_Accent1" table="0">
+      <tableStyleElement dxfId="16" type="headerRow"/>
+      <tableStyleElement dxfId="15" type="totalRow"/>
+      <tableStyleElement dxfId="14" type="firstRowStripe"/>
+      <tableStyleElement dxfId="13" type="firstColumnStripe"/>
+      <tableStyleElement dxfId="12" type="firstSubtotalRow"/>
+      <tableStyleElement dxfId="11" type="secondSubtotalRow"/>
+      <tableStyleElement dxfId="10" type="firstRowSubheading"/>
+      <tableStyleElement dxfId="9" type="secondRowSubheading"/>
+      <tableStyleElement dxfId="8" type="pageFieldLabels"/>
+      <tableStyleElement dxfId="7" type="pageFieldValues"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1274,16 +1274,16 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.84166666666667" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.84166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col width="12.5" customWidth="1" style="9" min="1" max="1"/>
-    <col width="10.7333333333333" customWidth="1" style="9" min="2" max="2"/>
-    <col width="9.375" customWidth="1" style="9" min="8" max="8"/>
-    <col width="9.375" customWidth="1" style="9" min="13" max="13"/>
-    <col width="9.375" customWidth="1" style="9" min="15" max="15"/>
+    <col customWidth="1" max="1" min="1" style="9" width="12.5"/>
+    <col customWidth="1" max="2" min="2" style="9" width="10.7333333333333"/>
+    <col customWidth="1" max="8" min="8" style="9" width="9.375"/>
+    <col customWidth="1" max="13" min="13" style="9" width="9.375"/>
+    <col customWidth="1" max="15" min="15" style="9" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="51" r="1" s="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>截面编号</t>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="2">
+    <row customFormat="1" r="2" s="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="10" t="n">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="3" customFormat="1" s="2">
+    <row customFormat="1" r="3" s="2">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="10" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="4" customFormat="1" s="2">
+    <row customFormat="1" r="4" s="2">
       <c r="B4" s="10" t="n">
         <v>1</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="5" customFormat="1" s="2">
+    <row customFormat="1" r="5" s="2">
       <c r="B5" s="10" t="n">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="6" customFormat="1" s="2">
+    <row customFormat="1" r="6" s="2">
       <c r="B6" s="10" t="n">
         <v>1</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="7" customFormat="1" s="2">
+    <row customFormat="1" r="7" s="2">
       <c r="B7" s="10" t="n">
         <v>1</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="8" customFormat="1" s="2">
+    <row customFormat="1" r="8" s="2">
       <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" customFormat="1" s="2">
+    <row customFormat="1" r="9" s="2">
       <c r="B9" s="10" t="n">
         <v>1</v>
       </c>
@@ -1893,23 +1893,23 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="B1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1"/>
-    <dataValidation sqref="B2:B9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation allowBlank="1" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="B1"/>
+    <dataValidation allowBlank="1" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="B2:B9" type="list">
       <formula1>"1.1,1.0,0.9"</formula1>
     </dataValidation>
-    <dataValidation sqref="C2:C9 F2:J9 M2:P9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="decimal" operator="greaterThanOrEqual">
+    <dataValidation allowBlank="1" operator="greaterThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="C2:C9 F2:J9 M2:P9" type="decimal">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation sqref="D2:D9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation allowBlank="1" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="D2:D9" type="list">
       <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation allowBlank="1" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="E2:E9" type="list">
       <formula1>"矩形,T形"</formula1>
     </dataValidation>
-    <dataValidation sqref="K2:L9" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+    <dataValidation allowBlank="1" showDropDown="0" showErrorMessage="1" showInputMessage="1" sqref="K2:L9" type="list">
       <formula1>"HPB300,HRB335,HRB400,HRB500"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>